--- a/Data/patents_all_map2.xlsx
+++ b/Data/patents_all_map2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmilSøndergaardHanse\Downloads\streamlit_viz-main\Novozymes_patents\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCEC57E-C633-447C-98FD-BEADB660DBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,12 +28,6 @@
     <t>2022 Inhabitants</t>
   </si>
   <si>
-    <t>patents/(inhabitants/100000)</t>
-  </si>
-  <si>
-    <t>patents</t>
-  </si>
-  <si>
     <t>Highlight</t>
   </si>
   <si>
@@ -536,13 +536,19 @@
   </si>
   <si>
     <t>UZB</t>
+  </si>
+  <si>
+    <t>Patents</t>
+  </si>
+  <si>
+    <t>Patents/(inhabitants/100000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,11 +611,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,9 +697,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,6 +749,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -892,14 +942,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,27 +959,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>338289857</v>
       </c>
       <c r="C2">
-        <v>16.46783042626076</v>
+        <v>16.467830426260761</v>
       </c>
       <c r="D2">
         <v>55709</v>
@@ -936,12 +988,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>123951692</v>
@@ -956,18 +1008,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>83369843</v>
       </c>
       <c r="C4">
-        <v>17.7834088040684</v>
+        <v>17.783408804068401</v>
       </c>
       <c r="D4">
         <v>14826</v>
@@ -976,18 +1028,18 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>64626628</v>
       </c>
       <c r="C5">
-        <v>10.17691964371095</v>
+        <v>10.176919643710949</v>
       </c>
       <c r="D5">
         <v>6577</v>
@@ -996,18 +1048,18 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>8740472</v>
       </c>
       <c r="C6">
-        <v>44.07084651721326</v>
+        <v>44.070846517213262</v>
       </c>
       <c r="D6">
         <v>3852</v>
@@ -1016,18 +1068,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>38454327</v>
       </c>
       <c r="C7">
-        <v>8.901469007635994</v>
+        <v>8.9014690076359937</v>
       </c>
       <c r="D7">
         <v>3423</v>
@@ -1036,12 +1088,12 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>17564014</v>
@@ -1056,18 +1108,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>59037474</v>
       </c>
       <c r="C9">
-        <v>4.873175976329882</v>
+        <v>4.8731759763298816</v>
       </c>
       <c r="D9">
         <v>2877</v>
@@ -1076,18 +1128,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>10549347</v>
       </c>
       <c r="C10">
-        <v>18.31392976266683</v>
+        <v>18.313929762666831</v>
       </c>
       <c r="D10">
         <v>1932</v>
@@ -1096,18 +1148,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>5540745</v>
       </c>
       <c r="C11">
-        <v>34.11093634520267</v>
+        <v>34.110936345202667</v>
       </c>
       <c r="D11">
         <v>1890</v>
@@ -1116,12 +1168,12 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>11655930</v>
@@ -1136,12 +1188,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>9038309</v>
@@ -1156,18 +1208,18 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>5882261</v>
       </c>
       <c r="C14">
-        <v>24.66738555123617</v>
+        <v>24.667385551236169</v>
       </c>
       <c r="D14">
         <v>1451</v>
@@ -1176,18 +1228,18 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>8939617</v>
       </c>
       <c r="C15">
-        <v>12.68510720313857</v>
+        <v>12.685107203138569</v>
       </c>
       <c r="D15">
         <v>1134</v>
@@ -1196,18 +1248,18 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>47558630</v>
       </c>
       <c r="C16">
-        <v>2.346577266838847</v>
+        <v>2.3465772668388469</v>
       </c>
       <c r="D16">
         <v>1116</v>
@@ -1216,18 +1268,18 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>5434319</v>
       </c>
       <c r="C17">
-        <v>16.34059391802358</v>
+        <v>16.340593918023579</v>
       </c>
       <c r="D17">
         <v>888</v>
@@ -1236,18 +1288,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>39857145</v>
       </c>
       <c r="C18">
-        <v>0.8354838260492566</v>
+        <v>0.83548382604925664</v>
       </c>
       <c r="D18">
         <v>333</v>
@@ -1256,18 +1308,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>5023109</v>
       </c>
       <c r="C19">
-        <v>5.41497307743073</v>
+        <v>5.4149730774307301</v>
       </c>
       <c r="D19">
         <v>272</v>
@@ -1276,18 +1328,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>67508936</v>
       </c>
       <c r="C20">
-        <v>0.3718026306917354</v>
+        <v>0.37180263069173541</v>
       </c>
       <c r="D20">
         <v>251</v>
@@ -1296,18 +1348,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>10270865</v>
       </c>
       <c r="C21">
-        <v>1.898574268087449</v>
+        <v>1.8985742680874489</v>
       </c>
       <c r="D21">
         <v>195</v>
@@ -1316,18 +1368,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>51815810</v>
       </c>
       <c r="C22">
-        <v>0.3300151054282467</v>
+        <v>0.33001510542824669</v>
       </c>
       <c r="D22">
         <v>171</v>
@@ -1336,18 +1388,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>1425887337</v>
       </c>
       <c r="C23">
-        <v>0.01037950167306942</v>
+        <v>1.0379501673069421E-2</v>
       </c>
       <c r="D23">
         <v>148</v>
@@ -1356,12 +1408,12 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>10493986</v>
@@ -1376,18 +1428,18 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>36408820</v>
       </c>
       <c r="C25">
-        <v>0.2801518972600595</v>
+        <v>0.28015189726005951</v>
       </c>
       <c r="D25">
         <v>102</v>
@@ -1396,18 +1448,18 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>9967308</v>
       </c>
       <c r="C26">
-        <v>0.9631487258144326</v>
+        <v>0.96314872581443256</v>
       </c>
       <c r="D26">
         <v>96</v>
@@ -1416,18 +1468,18 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>2567012</v>
       </c>
       <c r="C27">
-        <v>3.622889180105118</v>
+        <v>3.6228891801051182</v>
       </c>
       <c r="D27">
         <v>93</v>
@@ -1436,18 +1488,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2119844</v>
       </c>
       <c r="C28">
-        <v>2.877570236300407</v>
+        <v>2.8775702363004072</v>
       </c>
       <c r="D28">
         <v>61</v>
@@ -1456,18 +1508,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>10384971</v>
       </c>
       <c r="C29">
-        <v>0.5392407932578723</v>
+        <v>0.53924079325787233</v>
       </c>
       <c r="D29">
         <v>56</v>
@@ -1476,18 +1528,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>26177413</v>
       </c>
       <c r="C30">
-        <v>0.2101047953057852</v>
+        <v>0.21010479530578521</v>
       </c>
       <c r="D30">
         <v>55</v>
@@ -1496,18 +1548,18 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>5643453</v>
       </c>
       <c r="C31">
-        <v>0.744225211054296</v>
+        <v>0.74422521105429595</v>
       </c>
       <c r="D31">
         <v>42</v>
@@ -1516,18 +1568,18 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>5975689</v>
       </c>
       <c r="C32">
-        <v>0.70284782223439</v>
+        <v>0.70284782223439002</v>
       </c>
       <c r="D32">
         <v>42</v>
@@ -1536,18 +1588,18 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>1326062</v>
       </c>
       <c r="C33">
-        <v>2.790216445384907</v>
+        <v>2.7902164453849072</v>
       </c>
       <c r="D33">
         <v>37</v>
@@ -1556,18 +1608,18 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>1251488</v>
       </c>
       <c r="C34">
-        <v>2.556956199340305</v>
+        <v>2.5569561993403052</v>
       </c>
       <c r="D34">
         <v>32</v>
@@ -1576,18 +1628,18 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>215313498</v>
       </c>
       <c r="C35">
-        <v>0.01439761105920076</v>
+        <v>1.439761105920076E-2</v>
       </c>
       <c r="D35">
         <v>31</v>
@@ -1596,18 +1648,18 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>19659267</v>
       </c>
       <c r="C36">
-        <v>0.1525997891986512</v>
+        <v>0.15259978919865119</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -1616,18 +1668,18 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2750055</v>
       </c>
       <c r="C37">
-        <v>0.9090727276363564</v>
+        <v>0.90907272763635638</v>
       </c>
       <c r="D37">
         <v>25</v>
@@ -1636,18 +1688,18 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>127504125</v>
       </c>
       <c r="C38">
-        <v>0.0196072087863824</v>
+        <v>1.9607208786382401E-2</v>
       </c>
       <c r="D38">
         <v>25</v>
@@ -1656,18 +1708,18 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>1850651</v>
       </c>
       <c r="C39">
-        <v>1.134735830796839</v>
+        <v>1.1347358307968389</v>
       </c>
       <c r="D39">
         <v>21</v>
@@ -1676,18 +1728,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>45510318</v>
       </c>
       <c r="C40">
-        <v>0.043946078337664</v>
+        <v>4.3946078337664E-2</v>
       </c>
       <c r="D40">
         <v>20</v>
@@ -1696,18 +1748,18 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>6781953</v>
       </c>
       <c r="C41">
-        <v>0.2801552886019705</v>
+        <v>0.28015528860197048</v>
       </c>
       <c r="D41">
         <v>19</v>
@@ -1716,18 +1768,18 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>533286</v>
       </c>
       <c r="C42">
-        <v>3.562816199937744</v>
+        <v>3.5628161999377439</v>
       </c>
       <c r="D42">
         <v>19</v>
@@ -1736,18 +1788,18 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>1417173173</v>
       </c>
       <c r="C43">
-        <v>0.001270134119311331</v>
+        <v>1.270134119311331E-3</v>
       </c>
       <c r="D43">
         <v>18</v>
@@ -1756,18 +1808,18 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>9441129</v>
       </c>
       <c r="C44">
-        <v>0.1482873499557097</v>
+        <v>0.14828734995570969</v>
       </c>
       <c r="D44">
         <v>14</v>
@@ -1776,18 +1828,18 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>144713314</v>
       </c>
       <c r="C45">
-        <v>0.009674299905812398</v>
+        <v>9.6742999058123981E-3</v>
       </c>
       <c r="D45">
         <v>14</v>
@@ -1796,18 +1848,18 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>4030358</v>
       </c>
       <c r="C46">
-        <v>0.3225519916593018</v>
+        <v>0.32255199165930182</v>
       </c>
       <c r="D46">
         <v>13</v>
@@ -1816,18 +1868,18 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>23893394</v>
       </c>
       <c r="C47">
-        <v>0.04603782953564487</v>
+        <v>4.6037829535644871E-2</v>
       </c>
       <c r="D47">
         <v>11</v>
@@ -1836,18 +1888,18 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>85341241</v>
       </c>
       <c r="C48">
-        <v>0.008202364903505446</v>
+        <v>8.202364903505446E-3</v>
       </c>
       <c r="D48">
         <v>7</v>
@@ -1856,18 +1908,18 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>37457971</v>
       </c>
       <c r="C49">
-        <v>0.01334829374500824</v>
+        <v>1.334829374500824E-2</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -1876,18 +1928,18 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>59893885</v>
       </c>
       <c r="C50">
-        <v>0.008348097639683917</v>
+        <v>8.3480976396839175E-3</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -1896,18 +1948,18 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>5185288</v>
       </c>
       <c r="C51">
-        <v>0.07714132754053392</v>
+        <v>7.7141327540533919E-2</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -1916,18 +1968,18 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>34049588</v>
       </c>
       <c r="C52">
-        <v>0.01174757239353381</v>
+        <v>1.1747572393533809E-2</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -1936,18 +1988,18 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>12356117</v>
       </c>
       <c r="C53">
-        <v>0.03237262968617082</v>
+        <v>3.2372629686170822E-2</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -1956,18 +2008,18 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>79824</v>
       </c>
       <c r="C54">
-        <v>5.011024253357387</v>
+        <v>5.0110242533573874</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1976,18 +2028,18 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>19603733</v>
       </c>
       <c r="C55">
-        <v>0.02040427708334938</v>
+        <v>2.0404277083349381E-2</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -1996,18 +2048,18 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>7488865</v>
       </c>
       <c r="C56">
-        <v>0.05341263328955723</v>
+        <v>5.3412633289557233E-2</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -2016,18 +2068,18 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>71697030</v>
       </c>
       <c r="C57">
-        <v>0.005579031655844043</v>
+        <v>5.5790316558440431E-3</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -2036,18 +2088,18 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>6780744</v>
       </c>
       <c r="C58">
-        <v>0.02949528842262737</v>
+        <v>2.9495288422627369E-2</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2056,18 +2108,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>51874024</v>
       </c>
       <c r="C59">
-        <v>0.003855494225780518</v>
+        <v>3.8554942257805181E-3</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2076,18 +2128,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>281635</v>
       </c>
       <c r="C60">
-        <v>0.710139009711151</v>
+        <v>0.71013900971115096</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2096,18 +2148,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>3422794</v>
       </c>
       <c r="C61">
-        <v>0.05843179577853649</v>
+        <v>5.8431795778536487E-2</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2116,18 +2168,18 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>2630296</v>
       </c>
       <c r="C62">
-        <v>0.07603706959216758</v>
+        <v>7.6037069592167578E-2</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2136,18 +2188,18 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>110990103</v>
       </c>
       <c r="C63">
-        <v>0.001801962468671644</v>
+        <v>1.8019624686716441E-3</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2156,18 +2208,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>7221365</v>
       </c>
       <c r="C64">
-        <v>0.02769559494638479</v>
+        <v>2.769559494638479E-2</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2176,18 +2228,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>44903225</v>
       </c>
       <c r="C65">
-        <v>0.004454023068498978</v>
+        <v>4.4540230684989779E-3</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2196,18 +2248,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>275501339</v>
       </c>
       <c r="C66">
-        <v>0.000725949284769175</v>
+        <v>7.2594928476917497E-4</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2216,18 +2268,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>115559009</v>
       </c>
       <c r="C67">
-        <v>0.001730717507278035</v>
+        <v>1.730717507278035E-3</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -2236,18 +2288,18 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>53090</v>
       </c>
       <c r="C68">
-        <v>1.883593897155773</v>
+        <v>1.8835938971557731</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2256,18 +2308,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>11285869</v>
       </c>
       <c r="C69">
-        <v>0.00886063802441797</v>
+        <v>8.8606380244179699E-3</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2276,18 +2328,18 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>4408581</v>
       </c>
       <c r="C70">
-        <v>0.02268303565251495</v>
+        <v>2.2683035652514949E-2</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2296,18 +2348,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>2388992</v>
       </c>
       <c r="C71">
-        <v>0.04185865837976854</v>
+        <v>4.1858658379768543E-2</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2316,18 +2368,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>409984</v>
       </c>
       <c r="C72">
-        <v>0.2439119575398064</v>
+        <v>0.24391195753980641</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2336,18 +2388,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>171186372</v>
       </c>
       <c r="C73">
-        <v>0.0005841586501990941</v>
+        <v>5.841586501990941E-4</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2356,12 +2408,12 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>64184</v>
@@ -2376,18 +2428,18 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>123379924</v>
       </c>
       <c r="C75">
-        <v>0.0008105046328282711</v>
+        <v>8.105046328282711E-4</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2396,18 +2448,18 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>84519</v>
       </c>
       <c r="C76">
-        <v>1.18316591535631</v>
+        <v>1.1831659153563101</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2416,18 +2468,18 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>191163</v>
       </c>
       <c r="C77">
-        <v>0.523113782478827</v>
+        <v>0.52311378247882701</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2436,18 +2488,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>33938221</v>
       </c>
       <c r="C78">
-        <v>0.002946530402993133</v>
+        <v>2.9465304029931329E-3</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2456,18 +2508,18 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>2827377</v>
       </c>
       <c r="C79">
-        <v>0.03536847049403034</v>
+        <v>3.5368470494030337E-2</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2476,18 +2528,18 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>19397998</v>
       </c>
       <c r="C80">
-        <v>0.005155171167663797</v>
+        <v>5.155171167663797E-3</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2496,18 +2548,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B81">
         <v>4268873</v>
       </c>
       <c r="C81">
-        <v>0.02342538651302112</v>
+        <v>2.3425386513021122E-2</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2516,18 +2568,18 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B82">
         <v>5489739</v>
       </c>
       <c r="C82">
-        <v>0.01821580224487904</v>
+        <v>1.821580224487904E-2</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2536,18 +2588,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>29611714</v>
       </c>
       <c r="C83">
-        <v>0.003377041936849721</v>
+        <v>3.377041936849721E-3</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2556,12 +2608,12 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84">
         <v>63301</v>
@@ -2576,18 +2628,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>34627652</v>
       </c>
       <c r="C85">
-        <v>0.002887865455041537</v>
+        <v>2.8878654550415369E-3</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2596,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
